--- a/beneficiaires_cycle_3.xlsx
+++ b/beneficiaires_cycle_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="339">
   <si>
     <t>username</t>
   </si>
@@ -631,42 +631,6 @@
     <t>nord-est</t>
   </si>
   <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>GRO/HAMG - Hopital Alma Mater</t>
   </si>
   <si>
@@ -881,33 +845,6 @@
   </si>
   <si>
     <t>cite planteau</t>
-  </si>
-  <si>
-    <t>36938340</t>
-  </si>
-  <si>
-    <t>32101138</t>
-  </si>
-  <si>
-    <t>42589907</t>
-  </si>
-  <si>
-    <t>46886443</t>
-  </si>
-  <si>
-    <t>32254213</t>
-  </si>
-  <si>
-    <t>42142968</t>
-  </si>
-  <si>
-    <t>40696351</t>
-  </si>
-  <si>
-    <t>41044202</t>
-  </si>
-  <si>
-    <t>33780369</t>
   </si>
   <si>
     <t>oui_gen_timoun</t>
@@ -1921,68 +1858,68 @@
       <c r="H2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>205</v>
-      </c>
-      <c r="J2" t="s">
-        <v>217</v>
       </c>
       <c r="K2" s="2">
         <v>42871</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M2" s="2">
         <v>42887</v>
       </c>
       <c r="N2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2" t="s">
         <v>222</v>
-      </c>
-      <c r="O2" t="s">
-        <v>234</v>
       </c>
       <c r="P2" s="2">
         <v>45273</v>
       </c>
       <c r="Q2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="R2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S2" s="2">
         <v>45806.81166666667</v>
       </c>
       <c r="T2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="X2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AD2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AE2" s="2">
         <v>45553</v>
@@ -1991,301 +1928,301 @@
         <v>45735</v>
       </c>
       <c r="AG2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BA2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="BB2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="BC2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF2" t="s">
         <v>162</v>
       </c>
       <c r="BG2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="BH2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI2" t="s">
         <v>162</v>
       </c>
       <c r="BJ2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="BK2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>289</v>
+        <v>212</v>
+      </c>
+      <c r="BM2">
+        <v>36938340</v>
       </c>
       <c r="BN2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BW2">
         <v>331</v>
       </c>
       <c r="BX2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CA2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CN2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CO2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CP2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CQ2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CR2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CS2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CT2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CU2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CV2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CW2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CX2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CY2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CZ2" t="s">
         <v>140</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="DB2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>303</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>307</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>230</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA2" t="s">
         <v>319</v>
       </c>
-      <c r="DI2" t="s">
-        <v>320</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>321</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO2" t="s">
+      <c r="EB2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE2" t="s">
         <v>322</v>
       </c>
-      <c r="DP2" t="s">
-        <v>324</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>328</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>242</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>340</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>343</v>
-      </c>
       <c r="EF2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="EH2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="EI2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="EJ2" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:140">
@@ -2313,68 +2250,68 @@
       <c r="H3" t="s">
         <v>203</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>206</v>
-      </c>
-      <c r="J3" t="s">
-        <v>218</v>
       </c>
       <c r="K3" s="2">
         <v>44083</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P3" s="2">
         <v>44852</v>
       </c>
       <c r="Q3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="R3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S3" s="2">
         <v>45828.59763888889</v>
       </c>
       <c r="T3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="X3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AD3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE3" s="2">
         <v>45524</v>
@@ -2383,73 +2320,73 @@
         <v>45761</v>
       </c>
       <c r="AG3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="BC3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF3" t="s">
         <v>163</v>
@@ -2458,214 +2395,214 @@
         <v>141</v>
       </c>
       <c r="BH3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BK3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BN3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV3" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW3">
         <v>8969</v>
       </c>
       <c r="BX3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ3" t="s">
         <v>141</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="DB3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD3" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="DI3" t="s">
+        <v>299</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>304</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>308</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>241</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA3" t="s">
         <v>320</v>
       </c>
-      <c r="DK3" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO3" t="s">
+      <c r="EB3" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE3" t="s">
         <v>323</v>
       </c>
-      <c r="DP3" t="s">
-        <v>325</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>329</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>224</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>341</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>224</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>344</v>
-      </c>
       <c r="EF3" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="EG3" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="EH3" t="s">
         <v>199</v>
       </c>
       <c r="EI3" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="EJ3" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:140">
@@ -2693,68 +2630,68 @@
       <c r="H4" t="s">
         <v>203</v>
       </c>
-      <c r="I4" t="s">
-        <v>207</v>
+      <c r="I4">
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K4" s="2">
         <v>44574</v>
       </c>
       <c r="L4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M4" s="2">
         <v>44595</v>
       </c>
       <c r="N4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="O4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P4" s="2">
         <v>44865</v>
       </c>
       <c r="Q4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="R4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S4" s="2">
         <v>45789.455</v>
       </c>
       <c r="T4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC4" t="s">
         <v>243</v>
       </c>
-      <c r="AC4" t="s">
-        <v>255</v>
-      </c>
       <c r="AD4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE4" s="2">
         <v>45531</v>
@@ -2763,73 +2700,73 @@
         <v>45789</v>
       </c>
       <c r="AG4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AZ4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="BC4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF4" t="s">
         <v>164</v>
@@ -2838,217 +2775,217 @@
         <v>141</v>
       </c>
       <c r="BH4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ4" t="s">
         <v>192</v>
       </c>
       <c r="BK4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BN4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO4" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="BP4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BQ4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="BR4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="BS4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="BT4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="BU4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="BV4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW4">
         <v>10703</v>
       </c>
       <c r="BX4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CA4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="CB4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="CC4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="CN4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CO4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CP4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="CQ4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CR4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CS4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CT4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CU4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CV4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CW4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CX4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CY4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CZ4" t="s">
         <v>141</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="DB4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD4" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="DI4" t="s">
+        <v>299</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>309</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>241</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA4" t="s">
         <v>320</v>
       </c>
-      <c r="DK4" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO4" t="s">
+      <c r="EB4" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE4" t="s">
         <v>323</v>
       </c>
-      <c r="DP4" t="s">
-        <v>326</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT4" t="s">
+      <c r="EF4" t="s">
+        <v>328</v>
+      </c>
+      <c r="EG4" t="s">
         <v>330</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>253</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>341</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>344</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>349</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>351</v>
       </c>
       <c r="EH4" t="s">
         <v>199</v>
       </c>
       <c r="EI4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="EJ4" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:140">
@@ -3076,68 +3013,68 @@
       <c r="H5" t="s">
         <v>203</v>
       </c>
-      <c r="I5" t="s">
-        <v>208</v>
+      <c r="I5">
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K5" s="2">
         <v>44574</v>
       </c>
       <c r="L5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M5" s="2">
         <v>44593</v>
       </c>
       <c r="N5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P5" s="2">
         <v>44867</v>
       </c>
       <c r="Q5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S5" s="2">
         <v>45828.74337962963</v>
       </c>
       <c r="T5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC5" t="s">
         <v>244</v>
       </c>
-      <c r="AC5" t="s">
-        <v>256</v>
-      </c>
       <c r="AD5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE5" s="2">
         <v>44994</v>
@@ -3146,73 +3083,73 @@
         <v>45601</v>
       </c>
       <c r="AG5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AZ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="BC5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF5" t="s">
         <v>165</v>
@@ -3221,244 +3158,244 @@
         <v>141</v>
       </c>
       <c r="BH5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ5" t="s">
         <v>192</v>
       </c>
       <c r="BK5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>290</v>
+        <v>212</v>
+      </c>
+      <c r="BM5">
+        <v>32101138</v>
       </c>
       <c r="BN5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO5" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="BP5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="BQ5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="BR5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="BS5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="BT5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="BU5" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="BV5" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW5">
         <v>10710</v>
       </c>
       <c r="BX5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ5" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CA5" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="CB5" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="CC5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="CN5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CO5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CP5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CQ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CT5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CU5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CV5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CW5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CX5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ5" t="s">
         <v>141</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="DB5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DE5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DF5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DG5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DH5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DJ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DK5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DL5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DM5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DN5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DO5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DP5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DQ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DS5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DT5" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="DU5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="DV5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE5" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="EF5" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="EG5" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="EH5" t="s">
         <v>199</v>
       </c>
       <c r="EI5" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="EJ5" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:140">
@@ -3486,68 +3423,68 @@
       <c r="H6" t="s">
         <v>204</v>
       </c>
-      <c r="I6" t="s">
-        <v>209</v>
+      <c r="I6">
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K6" s="2">
         <v>44734</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M6" s="2">
         <v>44735</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="O6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P6" s="2">
         <v>45366</v>
       </c>
       <c r="Q6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S6" s="2">
         <v>45832.7487962963</v>
       </c>
       <c r="T6" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AE6" s="2">
         <v>45541</v>
@@ -3556,319 +3493,319 @@
         <v>45831</v>
       </c>
       <c r="AG6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="BC6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF6" t="s">
         <v>166</v>
       </c>
       <c r="BG6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="BH6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="BK6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>291</v>
+        <v>212</v>
+      </c>
+      <c r="BM6">
+        <v>42589907</v>
       </c>
       <c r="BN6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV6" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW6">
         <v>12320</v>
       </c>
       <c r="BX6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ6" t="s">
         <v>142</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="DB6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DE6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DF6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DG6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DH6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DJ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DK6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DL6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DM6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DN6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DO6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DP6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DQ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DS6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DT6" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="DU6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="DV6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE6" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="EF6" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG6" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="EH6" t="s">
         <v>200</v>
       </c>
       <c r="EI6" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="EJ6" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:140">
@@ -3893,68 +3830,68 @@
       <c r="H7" t="s">
         <v>203</v>
       </c>
-      <c r="I7" t="s">
-        <v>210</v>
+      <c r="I7">
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K7" s="2">
         <v>44992</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M7" s="2">
         <v>45323</v>
       </c>
       <c r="N7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="O7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P7" s="2">
         <v>45579</v>
       </c>
       <c r="Q7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="R7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S7" s="2">
         <v>45831.55282407408</v>
       </c>
       <c r="T7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE7" s="2">
         <v>45732</v>
@@ -3963,73 +3900,73 @@
         <v>45831</v>
       </c>
       <c r="AG7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="BC7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF7" t="s">
         <v>167</v>
@@ -4038,238 +3975,238 @@
         <v>141</v>
       </c>
       <c r="BH7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BK7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL7" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>292</v>
+        <v>212</v>
+      </c>
+      <c r="BM7">
+        <v>46886443</v>
       </c>
       <c r="BN7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="BW7">
         <v>12696</v>
       </c>
       <c r="BX7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ7" t="s">
         <v>141</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="DC7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DE7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DF7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DG7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DH7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DJ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DK7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DL7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DM7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DN7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DO7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DP7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DQ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DS7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DT7" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="DU7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="DV7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="EF7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="EG7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="EH7" t="s">
         <v>199</v>
       </c>
       <c r="EI7" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="EJ7" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:140">
@@ -4297,68 +4234,68 @@
       <c r="H8" t="s">
         <v>203</v>
       </c>
-      <c r="I8" t="s">
-        <v>211</v>
+      <c r="I8">
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="K8" s="2">
         <v>44992</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M8" s="2">
         <v>45054</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P8" s="2">
         <v>45511</v>
       </c>
       <c r="Q8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="R8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S8" s="2">
         <v>45828.74552083333</v>
       </c>
       <c r="T8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE8" s="2">
         <v>45732</v>
@@ -4367,73 +4304,73 @@
         <v>45579</v>
       </c>
       <c r="AG8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="BC8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF8" t="s">
         <v>168</v>
@@ -4442,202 +4379,202 @@
         <v>141</v>
       </c>
       <c r="BH8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ8" t="s">
         <v>194</v>
       </c>
       <c r="BK8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BN8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV8" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="BW8">
         <v>12727</v>
       </c>
       <c r="BX8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ8" t="s">
         <v>141</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="DC8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI8" t="s">
+        <v>299</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>298</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>313</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>232</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA8" t="s">
         <v>320</v>
       </c>
-      <c r="DK8" t="s">
-        <v>319</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>323</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>327</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>334</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>244</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>224</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>341</v>
-      </c>
       <c r="EB8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE8" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="EJ8" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:140">
@@ -4665,68 +4602,68 @@
       <c r="H9" t="s">
         <v>203</v>
       </c>
-      <c r="I9" t="s">
-        <v>212</v>
+      <c r="I9">
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K9" s="2">
         <v>44992</v>
       </c>
       <c r="L9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="N9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="O9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P9" s="2">
         <v>45511</v>
       </c>
       <c r="Q9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S9" s="2">
         <v>45828.59498842592</v>
       </c>
       <c r="T9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U9" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="X9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE9" s="2">
         <v>45714</v>
@@ -4735,73 +4672,73 @@
         <v>45592</v>
       </c>
       <c r="AG9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="BC9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF9" t="s">
         <v>169</v>
@@ -4810,217 +4747,217 @@
         <v>141</v>
       </c>
       <c r="BH9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ9" t="s">
         <v>194</v>
       </c>
       <c r="BK9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL9" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>293</v>
+        <v>212</v>
+      </c>
+      <c r="BM9">
+        <v>32254213</v>
       </c>
       <c r="BN9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV9" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW9">
         <v>12729</v>
       </c>
       <c r="BX9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ9" t="s">
         <v>141</v>
       </c>
       <c r="DA9" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="DC9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI9" t="s">
+        <v>299</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>298</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>314</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>229</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA9" t="s">
         <v>320</v>
       </c>
-      <c r="DK9" t="s">
-        <v>319</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO9" t="s">
+      <c r="EB9" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE9" t="s">
         <v>323</v>
       </c>
-      <c r="DP9" t="s">
-        <v>327</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>335</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>241</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>224</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>341</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>224</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>344</v>
-      </c>
       <c r="EF9" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="EG9" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="EH9" t="s">
         <v>199</v>
       </c>
       <c r="EI9" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="EJ9" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:140">
@@ -5048,68 +4985,68 @@
       <c r="H10" t="s">
         <v>203</v>
       </c>
-      <c r="I10" t="s">
-        <v>213</v>
+      <c r="I10">
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K10" s="2">
         <v>44992</v>
       </c>
       <c r="L10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M10" s="2">
         <v>45054</v>
       </c>
       <c r="N10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="O10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P10" s="2">
         <v>45732</v>
       </c>
       <c r="Q10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="R10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S10" s="2">
         <v>45789.45335648148</v>
       </c>
       <c r="T10" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="U10" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AE10" s="2">
         <v>45715</v>
@@ -5118,73 +5055,73 @@
         <v>45705</v>
       </c>
       <c r="AG10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB10" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="BC10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF10" t="s">
         <v>170</v>
@@ -5193,208 +5130,208 @@
         <v>141</v>
       </c>
       <c r="BH10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BK10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BN10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV10" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="BW10">
         <v>12731</v>
       </c>
       <c r="BX10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ10" t="s">
         <v>141</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="DC10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI10" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="DK10" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="DO10" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>315</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>232</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE10" t="s">
         <v>323</v>
       </c>
-      <c r="DP10" t="s">
-        <v>326</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>336</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>244</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>224</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>342</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>224</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>344</v>
-      </c>
       <c r="EF10" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="EG10" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="EH10" t="s">
         <v>199</v>
       </c>
       <c r="EI10" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="EJ10" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:140">
@@ -5422,71 +5359,71 @@
       <c r="H11" t="s">
         <v>204</v>
       </c>
-      <c r="I11" t="s">
-        <v>214</v>
+      <c r="I11">
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K11" s="2">
         <v>45063</v>
       </c>
       <c r="L11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M11" s="2">
         <v>45076</v>
       </c>
       <c r="N11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="O11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P11" s="2">
         <v>45601</v>
       </c>
       <c r="Q11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S11" s="2">
         <v>45813.59395833333</v>
       </c>
       <c r="T11" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U11" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>235</v>
+      </c>
+      <c r="X11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD11" t="s">
         <v>247</v>
-      </c>
-      <c r="X11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>259</v>
       </c>
       <c r="AE11" s="2">
         <v>45800</v>
@@ -5495,73 +5432,73 @@
         <v>45813</v>
       </c>
       <c r="AG11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="BC11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF11" t="s">
         <v>171</v>
@@ -5570,244 +5507,244 @@
         <v>143</v>
       </c>
       <c r="BH11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ11" t="s">
         <v>196</v>
       </c>
       <c r="BK11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL11" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>294</v>
+        <v>212</v>
+      </c>
+      <c r="BM11">
+        <v>42142968</v>
       </c>
       <c r="BN11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV11" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW11">
         <v>12953</v>
       </c>
       <c r="BX11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CA11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CN11" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CO11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CP11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CQ11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CR11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CS11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CT11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CU11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CV11" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CW11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CX11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CY11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CZ11" t="s">
         <v>143</v>
       </c>
       <c r="DA11" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="DB11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DE11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DF11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DG11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DH11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DJ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DK11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DL11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DM11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DN11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DO11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DP11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DQ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DS11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DT11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DU11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DV11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE11" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="EF11" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG11" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="EH11" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="EI11" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="EJ11" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:140">
@@ -5835,71 +5772,71 @@
       <c r="H12" t="s">
         <v>204</v>
       </c>
-      <c r="I12" t="s">
-        <v>214</v>
+      <c r="I12">
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K12" s="2">
         <v>45063</v>
       </c>
       <c r="L12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M12" s="2">
         <v>45076</v>
       </c>
       <c r="N12" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="O12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P12" s="2">
         <v>45601</v>
       </c>
       <c r="Q12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S12" s="2">
         <v>45813.50958333333</v>
       </c>
       <c r="T12" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U12" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>236</v>
+      </c>
+      <c r="X12" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD12" t="s">
         <v>248</v>
-      </c>
-      <c r="X12" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>260</v>
       </c>
       <c r="AE12" s="2">
         <v>45800</v>
@@ -5908,73 +5845,73 @@
         <v>45813</v>
       </c>
       <c r="AG12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="BC12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF12" t="s">
         <v>172</v>
@@ -5983,244 +5920,244 @@
         <v>143</v>
       </c>
       <c r="BH12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ12" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="BK12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL12" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>295</v>
+        <v>212</v>
+      </c>
+      <c r="BM12">
+        <v>40696351</v>
       </c>
       <c r="BN12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV12" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW12">
         <v>12954</v>
       </c>
       <c r="BX12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CA12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CN12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CO12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CP12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CQ12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CR12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CS12" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CT12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CU12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CV12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CW12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CX12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="CY12" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="CZ12" t="s">
         <v>143</v>
       </c>
       <c r="DA12" s="3" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="DB12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DE12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DF12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DG12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DH12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DJ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DK12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DL12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DM12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DN12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DO12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DP12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DQ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DS12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DT12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DU12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DV12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED12" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE12" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="EF12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG12" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="EH12" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="EI12" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="EJ12" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:140">
@@ -6248,68 +6185,68 @@
       <c r="H13" t="s">
         <v>204</v>
       </c>
-      <c r="I13" t="s">
-        <v>215</v>
+      <c r="I13">
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K13" s="2">
         <v>45133</v>
       </c>
       <c r="L13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M13" s="2">
         <v>45141</v>
       </c>
       <c r="N13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P13" s="2">
         <v>45316</v>
       </c>
       <c r="Q13" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="R13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S13" s="2">
         <v>45832.75024305555</v>
       </c>
       <c r="T13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U13" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE13" s="2">
         <v>45540</v>
@@ -6318,316 +6255,316 @@
         <v>45831</v>
       </c>
       <c r="AG13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="BC13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF13" t="s">
         <v>173</v>
       </c>
       <c r="BG13" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="BH13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ13" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="BK13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BN13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW13">
         <v>13133</v>
       </c>
       <c r="BX13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ13" t="s">
         <v>142</v>
       </c>
       <c r="DA13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT13" t="s">
         <v>316</v>
       </c>
-      <c r="DB13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DC13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DE13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DG13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DI13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DK13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DL13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DO13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DQ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT13" t="s">
-        <v>337</v>
-      </c>
       <c r="DU13" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="DV13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE13" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="EF13" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG13" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="EH13" t="s">
         <v>200</v>
       </c>
       <c r="EI13" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="EJ13" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:140">
@@ -6655,68 +6592,68 @@
       <c r="H14" t="s">
         <v>204</v>
       </c>
-      <c r="I14" t="s">
-        <v>216</v>
+      <c r="I14">
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K14" s="2">
         <v>45133</v>
       </c>
       <c r="L14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M14" s="2">
         <v>45141</v>
       </c>
       <c r="N14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P14" s="2">
         <v>45316</v>
       </c>
       <c r="Q14" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="R14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S14" s="2">
         <v>45832.74958333333</v>
       </c>
       <c r="T14" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U14" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AE14" s="2">
         <v>45540</v>
@@ -6725,319 +6662,319 @@
         <v>45831</v>
       </c>
       <c r="AG14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="BC14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF14" t="s">
         <v>174</v>
       </c>
       <c r="BG14" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="BH14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ14" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="BK14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL14" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>296</v>
+        <v>212</v>
+      </c>
+      <c r="BM14">
+        <v>41044202</v>
       </c>
       <c r="BN14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV14" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW14">
         <v>13134</v>
       </c>
       <c r="BX14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ14" t="s">
         <v>142</v>
       </c>
       <c r="DA14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT14" t="s">
         <v>317</v>
       </c>
-      <c r="DB14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DC14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DE14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DF14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DG14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DI14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DL14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DP14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DQ14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>224</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>338</v>
-      </c>
       <c r="DU14" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="DV14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE14" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="EF14" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG14" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="EH14" t="s">
         <v>200</v>
       </c>
       <c r="EI14" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="EJ14" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:140">
@@ -7065,71 +7002,71 @@
       <c r="H15" t="s">
         <v>204</v>
       </c>
-      <c r="I15" t="s">
-        <v>214</v>
+      <c r="I15">
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K15" s="2">
         <v>45133</v>
       </c>
       <c r="L15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M15" s="2">
         <v>45141</v>
       </c>
       <c r="N15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P15" s="2">
         <v>45316</v>
       </c>
       <c r="Q15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="R15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S15" s="2">
         <v>45832.7515625</v>
       </c>
       <c r="T15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="X15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Z15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AA15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AB15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AC15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD15" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AE15" s="2">
         <v>45540</v>
@@ -7138,319 +7075,319 @@
         <v>45831</v>
       </c>
       <c r="AG15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AH15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AI15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AJ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AK15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AL15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AN15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AO15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AP15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AR15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AS15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AT15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AU15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AV15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AW15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AY15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AZ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BB15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="BC15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BD15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BE15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BF15" t="s">
         <v>175</v>
       </c>
       <c r="BG15" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="BH15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BI15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BJ15" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="BK15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BL15" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>297</v>
+        <v>212</v>
+      </c>
+      <c r="BM15">
+        <v>33780369</v>
       </c>
       <c r="BN15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BO15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BP15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BQ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BR15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BS15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BT15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BU15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BV15" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="BW15">
         <v>13135</v>
       </c>
       <c r="BX15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BY15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="BZ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CA15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CB15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CC15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CD15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CE15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CF15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CG15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CH15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CI15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CJ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CK15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CL15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CM15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CN15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CO15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CP15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CQ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CR15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CS15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CT15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CU15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CV15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CW15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CX15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CY15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="CZ15" t="s">
         <v>142</v>
       </c>
       <c r="DA15" s="3" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="DB15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DC15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DD15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DE15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DF15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DG15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DH15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DI15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DJ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DK15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DL15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DM15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DN15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DO15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DP15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DQ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DS15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DT15" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="DU15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="DV15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DW15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DX15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DY15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="DZ15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EA15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EB15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EC15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="ED15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="EE15" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="EF15" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="EG15" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="EH15" t="s">
         <v>200</v>
       </c>
       <c r="EI15" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="EJ15" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/beneficiaires_cycle_3.xlsx
+++ b/beneficiaires_cycle_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="385">
   <si>
     <t>username</t>
   </si>
@@ -454,9 +454,6 @@
     <t>e361434a-7f5b-430d-b2e7-41ee86279f13</t>
   </si>
   <si>
-    <t>e35ea2a0-f14b-433f-be2a-84cb4f706d2b</t>
-  </si>
-  <si>
     <t>f29bc12d-21f4-4442-a086-e0c25289cd8d</t>
   </si>
   <si>
@@ -490,6 +487,15 @@
     <t>05f67553-0d2e-47bd-a414-fdc0cb539b41</t>
   </si>
   <si>
+    <t>f8809565-d6a6-4c8d-a217-31859d01ca84</t>
+  </si>
+  <si>
+    <t>14f549ab-b4bd-4b82-bd5a-a3474d446474</t>
+  </si>
+  <si>
+    <t>5564676e-fdb0-469a-8c85-d139d5de9899</t>
+  </si>
+  <si>
     <t>Caris</t>
   </si>
   <si>
@@ -508,84 +514,93 @@
     <t>Accilien</t>
   </si>
   <si>
+    <t>Maturhin</t>
+  </si>
+  <si>
+    <t>fadeline</t>
+  </si>
+  <si>
+    <t>Stéphanie</t>
+  </si>
+  <si>
+    <t>Minel</t>
+  </si>
+  <si>
+    <t>Jusla</t>
+  </si>
+  <si>
+    <t>Rose Djinou</t>
+  </si>
+  <si>
+    <t>Guerline</t>
+  </si>
+  <si>
+    <t>Berline</t>
+  </si>
+  <si>
+    <t>Nolimene</t>
+  </si>
+  <si>
+    <t>Angeline</t>
+  </si>
+  <si>
+    <t>Émeraude</t>
+  </si>
+  <si>
+    <t>Myriame</t>
+  </si>
+  <si>
+    <t>Lovelie</t>
+  </si>
+  <si>
+    <t>Loudena</t>
+  </si>
+  <si>
+    <t>Clermane</t>
+  </si>
+  <si>
+    <t>Telusmène</t>
+  </si>
+  <si>
+    <t>Dieuloude</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Dorsainvil</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Noël</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Bissainthe</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Petit-fort</t>
+  </si>
+  <si>
+    <t>Louissaint</t>
+  </si>
+  <si>
     <t>Cadet</t>
   </si>
   <si>
-    <t>Maturhin</t>
-  </si>
-  <si>
-    <t>fadeline</t>
-  </si>
-  <si>
-    <t>Stéphanie</t>
-  </si>
-  <si>
-    <t>Minel</t>
-  </si>
-  <si>
-    <t>Jusla</t>
-  </si>
-  <si>
-    <t>Rose Djinou</t>
-  </si>
-  <si>
-    <t>Guerline</t>
-  </si>
-  <si>
-    <t>Berline</t>
-  </si>
-  <si>
-    <t>Nolimene</t>
-  </si>
-  <si>
-    <t>Angeline</t>
-  </si>
-  <si>
-    <t>Émeraude</t>
-  </si>
-  <si>
-    <t>Clermane</t>
-  </si>
-  <si>
-    <t>Telusmène</t>
-  </si>
-  <si>
-    <t>Solius</t>
-  </si>
-  <si>
-    <t>Dieuloude</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Dorsainvil</t>
-  </si>
-  <si>
-    <t>Jacques</t>
-  </si>
-  <si>
-    <t>Noël</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Bissainthe</t>
-  </si>
-  <si>
-    <t>Alexandre</t>
-  </si>
-  <si>
-    <t>Michel</t>
-  </si>
-  <si>
-    <t>Petit-fort</t>
-  </si>
-  <si>
     <t>perou</t>
   </si>
   <si>
@@ -610,6 +625,15 @@
     <t>cap haitien</t>
   </si>
   <si>
+    <t>bois blan</t>
+  </si>
+  <si>
+    <t>nan bourg</t>
+  </si>
+  <si>
+    <t>bois Blanc</t>
+  </si>
+  <si>
     <t>gros_morne</t>
   </si>
   <si>
@@ -622,6 +646,9 @@
     <t>trou-du-nord</t>
   </si>
   <si>
+    <t>Terrier-Rouge</t>
+  </si>
+  <si>
     <t>artibonite</t>
   </si>
   <si>
@@ -631,6 +658,48 @@
     <t>nord-est</t>
   </si>
   <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>GRO/HAMG - Hopital Alma Mater</t>
   </si>
   <si>
@@ -646,6 +715,9 @@
     <t>CAP/CALT - CAL de Trou du Nord</t>
   </si>
   <si>
+    <t>CAP/CSLT - CSL de Terrier Rouge</t>
+  </si>
+  <si>
     <t>2024-04-17</t>
   </si>
   <si>
@@ -658,9 +730,6 @@
     <t>2022-06-30</t>
   </si>
   <si>
-    <t>2022-10-31</t>
-  </si>
-  <si>
     <t>2022-11-02</t>
   </si>
   <si>
@@ -682,6 +751,9 @@
     <t>2024-05-13</t>
   </si>
   <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
     <t>2020-03-06</t>
   </si>
   <si>
@@ -691,9 +763,6 @@
     <t>2023-02-09</t>
   </si>
   <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
     <t>2025-02-17</t>
   </si>
   <si>
@@ -730,12 +799,30 @@
     <t>19.5537246 -71.7271914 5.0 4.83</t>
   </si>
   <si>
+    <t>19.6361771 -71.956907 -1.0 3.9</t>
+  </si>
+  <si>
+    <t>19.6362288 -71.9568712 3.0 4.91</t>
+  </si>
+  <si>
+    <t>19.6362583 -71.9568351 5.0 4.7</t>
+  </si>
+  <si>
     <t>2024-01-10</t>
   </si>
   <si>
     <t>2024-01-09</t>
   </si>
   <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
     <t>2022-01-17</t>
   </si>
   <si>
@@ -745,9 +832,6 @@
     <t>AA12345</t>
   </si>
   <si>
-    <t>JA11105</t>
-  </si>
-  <si>
     <t>JA11112</t>
   </si>
   <si>
@@ -772,7 +856,13 @@
     <t>ST03359</t>
   </si>
   <si>
-    <t>58</t>
+    <t>St00733</t>
+  </si>
+  <si>
+    <t>St00231</t>
+  </si>
+  <si>
+    <t>St00577</t>
   </si>
   <si>
     <t>30</t>
@@ -787,9 +877,6 @@
     <t>2021-02-27 23:42:32</t>
   </si>
   <si>
-    <t>2022-01-30 14:18:49</t>
-  </si>
-  <si>
     <t>2022-01-30 14:35:58</t>
   </si>
   <si>
@@ -823,6 +910,15 @@
     <t>2023-07-26 17:35:43</t>
   </si>
   <si>
+    <t>2024-02-01 17:14:44</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:18:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:20:24</t>
+  </si>
+  <si>
     <t>ecarras84@gmail.com</t>
   </si>
   <si>
@@ -847,6 +943,42 @@
     <t>cite planteau</t>
   </si>
   <si>
+    <t>bois blanc</t>
+  </si>
+  <si>
+    <t>36938340</t>
+  </si>
+  <si>
+    <t>32101138</t>
+  </si>
+  <si>
+    <t>42589907</t>
+  </si>
+  <si>
+    <t>46886443</t>
+  </si>
+  <si>
+    <t>32254213</t>
+  </si>
+  <si>
+    <t>42142968</t>
+  </si>
+  <si>
+    <t>40696351</t>
+  </si>
+  <si>
+    <t>41044202</t>
+  </si>
+  <si>
+    <t>33780369</t>
+  </si>
+  <si>
+    <t>55531564</t>
+  </si>
+  <si>
+    <t>43520105</t>
+  </si>
+  <si>
     <t>oui_gen_timoun</t>
   </si>
   <si>
@@ -874,9 +1006,6 @@
     <t>https://www.commcarehq.org/a/caris-test/reports/case_data/e361434a-7f5b-430d-b2e7-41ee86279f13/</t>
   </si>
   <si>
-    <t>https://www.commcarehq.org/a/caris-test/reports/case_data/e35ea2a0-f14b-433f-be2a-84cb4f706d2b/</t>
-  </si>
-  <si>
     <t>https://www.commcarehq.org/a/caris-test/reports/case_data/f29bc12d-21f4-4442-a086-e0c25289cd8d/</t>
   </si>
   <si>
@@ -910,6 +1039,15 @@
     <t>https://www.commcarehq.org/a/caris-test/reports/case_data/05f67553-0d2e-47bd-a414-fdc0cb539b41/</t>
   </si>
   <si>
+    <t>https://www.commcarehq.org/a/caris-test/reports/case_data/f8809565-d6a6-4c8d-a217-31859d01ca84/</t>
+  </si>
+  <si>
+    <t>https://www.commcarehq.org/a/caris-test/reports/case_data/14f549ab-b4bd-4b82-bd5a-a3474d446474/</t>
+  </si>
+  <si>
+    <t>https://www.commcarehq.org/a/caris-test/reports/case_data/5564676e-fdb0-469a-8c85-d139d5de9899/</t>
+  </si>
+  <si>
     <t>wi</t>
   </si>
   <si>
@@ -931,25 +1069,22 @@
     <t>fe pi gwo jaden</t>
   </si>
   <si>
+    <t>agrandi komes la</t>
+  </si>
+  <si>
     <t>agrandi bisniz lan</t>
   </si>
   <si>
-    <t>agrandi komes la</t>
-  </si>
-  <si>
     <t>2021-09-06</t>
   </si>
   <si>
     <t>2021-08-12</t>
   </si>
   <si>
-    <t>2021-11-17</t>
-  </si>
-  <si>
     <t>2022-08-23</t>
   </si>
   <si>
-    <t>2022-06-22</t>
+    <t>2025-08-01</t>
   </si>
   <si>
     <t>2012-06-12</t>
@@ -964,13 +1099,13 @@
     <t>2023-07-06</t>
   </si>
   <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
   </si>
   <si>
     <t>2025-03-25</t>
@@ -995,6 +1130,9 @@
   </si>
   <si>
     <t>CAP/CALT</t>
+  </si>
+  <si>
+    <t>CAP/CSLT</t>
   </si>
   <si>
     <t>Actif</t>
@@ -1405,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EJ15"/>
+  <dimension ref="A1:EJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,85 +1979,85 @@
         <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2">
-        <v>38</v>
+        <v>211</v>
+      </c>
+      <c r="I2" t="s">
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K2" s="2">
         <v>42871</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M2" s="2">
         <v>42887</v>
       </c>
       <c r="N2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="O2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="P2" s="2">
         <v>45273</v>
       </c>
       <c r="Q2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="R2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2">
         <v>45806.81166666667</v>
       </c>
       <c r="T2" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X2" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="Y2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB2" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="AD2" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="AE2" s="2">
         <v>45553</v>
@@ -1928,301 +2066,301 @@
         <v>45735</v>
       </c>
       <c r="AG2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BA2" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="BB2" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="BC2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BG2" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="BH2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ2" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="BK2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM2">
-        <v>36938340</v>
+        <v>236</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>310</v>
       </c>
       <c r="BN2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BW2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BX2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CA2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CN2" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="CO2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CP2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CQ2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CR2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CS2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CT2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CU2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CV2" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="CW2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CX2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CY2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CZ2" t="s">
         <v>140</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="DB2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD2" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DI2" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="DJ2" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="DM2" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DO2" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="DP2" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="DQ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT2" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="DU2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="DV2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA2" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="EB2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE2" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="EF2" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="EG2" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="EH2" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="EI2" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="EJ2" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:140">
@@ -2233,85 +2371,85 @@
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3">
-        <v>36</v>
+        <v>212</v>
+      </c>
+      <c r="I3" t="s">
+        <v>215</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K3" s="2">
         <v>44083</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="N3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="O3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P3" s="2">
         <v>44852</v>
       </c>
       <c r="Q3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="R3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2">
-        <v>45828.59763888889</v>
+        <v>45866.44366898148</v>
       </c>
       <c r="T3" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA3" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="AB3" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AC3" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="AD3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AE3" s="2">
         <v>45524</v>
@@ -2320,289 +2458,289 @@
         <v>45761</v>
       </c>
       <c r="AG3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB3" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="BC3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BG3" t="s">
         <v>141</v>
       </c>
       <c r="BH3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BK3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BN3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV3" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW3">
         <v>8969</v>
       </c>
       <c r="BX3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ3" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="CA3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CN3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CO3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CP3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CQ3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CR3" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="CS3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CT3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CU3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CV3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CW3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CX3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CY3" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CZ3" t="s">
         <v>141</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="DB3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD3" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DI3" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="DK3" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DO3" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="DP3" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="DQ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT3" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="DU3" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="DV3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA3" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="EB3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE3" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="EF3" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="EG3" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="EH3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="EI3" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="EJ3" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:140">
@@ -2613,384 +2751,411 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4">
-        <v>52</v>
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
+        <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K4" s="2">
         <v>44574</v>
       </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M4" s="2">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="N4" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P4" s="2">
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="Q4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="R4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S4" s="2">
-        <v>45789.455</v>
+        <v>45828.74337962963</v>
       </c>
       <c r="T4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA4" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="AB4" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="AC4" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="AD4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AE4" s="2">
-        <v>45531</v>
+        <v>44994</v>
       </c>
       <c r="AF4" s="2">
-        <v>45789</v>
+        <v>45601</v>
       </c>
       <c r="AG4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="AZ4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB4" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="BC4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BG4" t="s">
         <v>141</v>
       </c>
       <c r="BH4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="BK4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL4" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>311</v>
       </c>
       <c r="BN4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO4" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="BP4" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="BQ4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="BR4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="BS4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="BT4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="BU4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="BV4" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW4">
-        <v>10703</v>
+        <v>10710</v>
       </c>
       <c r="BX4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ4" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="CA4" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="CB4" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="CC4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CN4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CO4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CP4" t="s">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="CQ4" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="CR4" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CS4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CT4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CU4" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CV4" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="CW4" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="CX4" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CY4" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CZ4" t="s">
         <v>141</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="DB4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD4" t="s">
-        <v>298</v>
+        <v>236</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>236</v>
       </c>
       <c r="DI4" t="s">
-        <v>299</v>
+        <v>236</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>236</v>
       </c>
       <c r="DK4" t="s">
-        <v>298</v>
+        <v>236</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>236</v>
       </c>
       <c r="DO4" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="DP4" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="DQ4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT4" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="DU4" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="DV4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA4" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="EB4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE4" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="EF4" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="EG4" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="EH4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="EI4" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="EJ4" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:140">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
@@ -2999,813 +3164,804 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5">
-        <v>38</v>
+        <v>213</v>
+      </c>
+      <c r="I5" t="s">
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K5" s="2">
-        <v>44574</v>
+        <v>44734</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M5" s="2">
-        <v>44593</v>
+        <v>44735</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P5" s="2">
-        <v>44867</v>
+        <v>45366</v>
       </c>
       <c r="Q5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="R5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S5" s="2">
-        <v>45828.74337962963</v>
+        <v>45870.61369212963</v>
       </c>
       <c r="T5" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U5" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AC5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AD5" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="AE5" s="2">
-        <v>44994</v>
+        <v>45541</v>
       </c>
       <c r="AF5" s="2">
-        <v>45601</v>
+        <v>45831</v>
       </c>
       <c r="AG5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AZ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB5" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="BC5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BG5" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="BH5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ5" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="BK5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL5" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM5">
-        <v>32101138</v>
+        <v>236</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>312</v>
       </c>
       <c r="BN5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO5" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="BP5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BQ5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="BR5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="BS5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="BT5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="BU5" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="BV5" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW5">
-        <v>10710</v>
+        <v>12320</v>
       </c>
       <c r="BX5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ5" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="CA5" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="CB5" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="CC5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="CN5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CO5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CP5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CQ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CT5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CU5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CV5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CW5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CX5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="DB5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT5" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="DU5" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="DV5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE5" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="EF5" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="EG5" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="EH5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="EI5" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="EJ5" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:140">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6">
-        <v>27</v>
+        <v>212</v>
+      </c>
+      <c r="I6" t="s">
+        <v>218</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K6" s="2">
-        <v>44734</v>
+        <v>44992</v>
       </c>
       <c r="L6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M6" s="2">
-        <v>44735</v>
+        <v>45323</v>
       </c>
       <c r="N6" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P6" s="2">
-        <v>45366</v>
+        <v>45579</v>
       </c>
       <c r="Q6" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="R6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S6" s="2">
-        <v>45832.7487962963</v>
+        <v>45866.45571759259</v>
       </c>
       <c r="T6" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U6" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AE6" s="2">
-        <v>45541</v>
+        <v>45732</v>
       </c>
       <c r="AF6" s="2">
         <v>45831</v>
       </c>
       <c r="AG6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB6" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BC6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BG6" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="BH6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="BK6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM6">
-        <v>42589907</v>
+        <v>236</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>313</v>
       </c>
       <c r="BN6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV6" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="BW6">
-        <v>12320</v>
+        <v>12696</v>
       </c>
       <c r="BX6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="DC6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT6" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="DU6" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="DV6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE6" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="EF6" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="EG6" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="EH6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="EI6" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="EJ6" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:140">
@@ -3816,397 +3972,364 @@
         <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7">
-        <v>19</v>
+        <v>212</v>
+      </c>
+      <c r="I7" t="s">
+        <v>219</v>
       </c>
       <c r="J7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K7" s="2">
         <v>44992</v>
       </c>
       <c r="L7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M7" s="2">
-        <v>45323</v>
+        <v>45054</v>
       </c>
       <c r="N7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="O7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P7" s="2">
-        <v>45579</v>
+        <v>45511</v>
       </c>
       <c r="Q7" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="R7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S7" s="2">
-        <v>45831.55282407408</v>
+        <v>45828.74552083333</v>
       </c>
       <c r="T7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AE7" s="2">
         <v>45732</v>
       </c>
       <c r="AF7" s="2">
-        <v>45831</v>
+        <v>45579</v>
       </c>
       <c r="AG7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB7" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="BC7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BG7" t="s">
         <v>141</v>
       </c>
       <c r="BH7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI7" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>199</v>
       </c>
       <c r="BK7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL7" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM7">
-        <v>46886443</v>
+        <v>236</v>
       </c>
       <c r="BN7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV7" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="BW7">
-        <v>12696</v>
+        <v>12727</v>
       </c>
       <c r="BX7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ7" t="s">
         <v>141</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="DC7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DE7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="DK7" t="s">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="DL7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DN7" t="s">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="DO7" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="DP7" t="s">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="DQ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT7" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="DU7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="DV7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA7" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="EB7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE7" t="s">
-        <v>323</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>328</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>330</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>199</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="EJ7" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:140">
@@ -4217,364 +4340,379 @@
         <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
+        <v>212</v>
+      </c>
+      <c r="I8" t="s">
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K8" s="2">
         <v>44992</v>
       </c>
       <c r="L8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="2">
-        <v>45054</v>
+        <v>236</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P8" s="2">
         <v>45511</v>
       </c>
       <c r="Q8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="R8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S8" s="2">
-        <v>45828.74552083333</v>
+        <v>45828.59498842592</v>
       </c>
       <c r="T8" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U8" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
       </c>
+      <c r="W8" t="s">
+        <v>236</v>
+      </c>
       <c r="X8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AE8" s="2">
-        <v>45732</v>
+        <v>45714</v>
       </c>
       <c r="AF8" s="2">
-        <v>45579</v>
+        <v>45592</v>
       </c>
       <c r="AG8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB8" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="BC8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BG8" t="s">
         <v>141</v>
       </c>
       <c r="BH8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="BK8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL8" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>314</v>
       </c>
       <c r="BN8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV8" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="BW8">
-        <v>12727</v>
+        <v>12729</v>
       </c>
       <c r="BX8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ8" t="s">
         <v>141</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="DC8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI8" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="DK8" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DL8" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DO8" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="DP8" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="DQ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT8" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="DU8" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DV8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA8" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="EB8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED8" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE8" t="s">
-        <v>325</v>
+        <v>368</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>374</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>376</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>207</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>381</v>
       </c>
       <c r="EJ8" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:140">
@@ -4585,753 +4723,783 @@
         <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9">
-        <v>46</v>
+        <v>212</v>
+      </c>
+      <c r="I9" t="s">
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K9" s="2">
         <v>44992</v>
       </c>
       <c r="L9" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="M9" s="2">
+        <v>45054</v>
       </c>
       <c r="N9" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P9" s="2">
-        <v>45511</v>
+        <v>45732</v>
       </c>
       <c r="Q9" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="R9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S9" s="2">
-        <v>45828.59498842592</v>
+        <v>45789.45335648148</v>
       </c>
       <c r="T9" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="U9" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>212</v>
-      </c>
       <c r="X9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AE9" s="2">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="AF9" s="2">
-        <v>45592</v>
+        <v>45705</v>
       </c>
       <c r="AG9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB9" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="BC9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BG9" t="s">
         <v>141</v>
       </c>
       <c r="BH9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI9" t="s">
-        <v>212</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="BK9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL9" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM9">
-        <v>32254213</v>
+        <v>236</v>
       </c>
       <c r="BN9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV9" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="BW9">
-        <v>12729</v>
+        <v>12731</v>
       </c>
       <c r="BX9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ9" t="s">
         <v>141</v>
       </c>
       <c r="DA9" s="3" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="DC9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI9" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="DK9" t="s">
-        <v>298</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="DO9" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="DP9" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="DQ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT9" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="DU9" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="DV9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA9" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="EB9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED9" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE9" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="EF9" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="EG9" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="EH9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="EI9" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="EJ9" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:140">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10">
-        <v>23</v>
+        <v>213</v>
+      </c>
+      <c r="I10" t="s">
+        <v>222</v>
       </c>
       <c r="J10" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K10" s="2">
-        <v>44992</v>
+        <v>45063</v>
       </c>
       <c r="L10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M10" s="2">
-        <v>45054</v>
+        <v>45076</v>
       </c>
       <c r="N10" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P10" s="2">
-        <v>45732</v>
+        <v>45601</v>
       </c>
       <c r="Q10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="R10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S10" s="2">
-        <v>45789.45335648148</v>
+        <v>45813.59395833333</v>
       </c>
       <c r="T10" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="U10" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
       </c>
+      <c r="W10" t="s">
+        <v>258</v>
+      </c>
       <c r="X10" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="Y10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB10" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AC10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD10" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="AE10" s="2">
-        <v>45715</v>
+        <v>45800</v>
       </c>
       <c r="AF10" s="2">
-        <v>45705</v>
+        <v>45813</v>
       </c>
       <c r="AG10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB10" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="BC10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BG10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BH10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI10" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>201</v>
       </c>
       <c r="BK10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL10" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>315</v>
       </c>
       <c r="BN10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV10" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="BW10">
-        <v>12731</v>
+        <v>12953</v>
       </c>
       <c r="BX10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CA10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CN10" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="CO10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CP10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CQ10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CR10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CS10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CT10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CU10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CV10" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="CW10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CX10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CY10" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="CZ10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>292</v>
+        <v>336</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>236</v>
       </c>
       <c r="DC10" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>236</v>
       </c>
       <c r="DI10" t="s">
-        <v>299</v>
+        <v>236</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>236</v>
       </c>
       <c r="DK10" t="s">
-        <v>298</v>
+        <v>236</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>236</v>
       </c>
       <c r="DO10" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="DP10" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="DQ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT10" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="DU10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="DV10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA10" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="EB10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED10" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE10" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="EF10" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="EG10" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="EH10" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="EI10" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="EJ10" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:140">
@@ -5342,88 +5510,88 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I11">
-        <v>33</v>
+        <v>213</v>
+      </c>
+      <c r="I11" t="s">
+        <v>222</v>
       </c>
       <c r="J11" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K11" s="2">
         <v>45063</v>
       </c>
       <c r="L11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M11" s="2">
         <v>45076</v>
       </c>
       <c r="N11" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P11" s="2">
         <v>45601</v>
       </c>
       <c r="Q11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="R11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S11" s="2">
-        <v>45813.59395833333</v>
+        <v>45813.50958333333</v>
       </c>
       <c r="T11" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U11" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="X11" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Y11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB11" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="AC11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD11" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AE11" s="2">
         <v>45800</v>
@@ -5432,732 +5600,726 @@
         <v>45813</v>
       </c>
       <c r="AG11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB11" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="BC11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BG11" t="s">
         <v>143</v>
       </c>
       <c r="BH11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ11" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="BK11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL11" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM11">
-        <v>42142968</v>
+        <v>236</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>316</v>
       </c>
       <c r="BN11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV11" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW11">
-        <v>12953</v>
+        <v>12954</v>
       </c>
       <c r="BX11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CA11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CN11" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="CO11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CP11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CQ11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CR11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CS11" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="CT11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CU11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CV11" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="CW11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CX11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="CY11" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="CZ11" t="s">
         <v>143</v>
       </c>
       <c r="DA11" s="3" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="DB11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DU11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DV11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE11" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="EF11" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="EG11" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="EH11" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="EI11" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="EJ11" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:140">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12">
-        <v>33</v>
+        <v>213</v>
+      </c>
+      <c r="I12" t="s">
+        <v>223</v>
       </c>
       <c r="J12" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K12" s="2">
-        <v>45063</v>
+        <v>45133</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M12" s="2">
-        <v>45076</v>
+        <v>45141</v>
       </c>
       <c r="N12" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="O12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P12" s="2">
-        <v>45601</v>
+        <v>45316</v>
       </c>
       <c r="Q12" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="R12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S12" s="2">
-        <v>45813.50958333333</v>
+        <v>45855.82412037037</v>
       </c>
       <c r="T12" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U12" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>236</v>
-      </c>
       <c r="X12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Y12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB12" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AC12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD12" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="AE12" s="2">
-        <v>45800</v>
+        <v>45540</v>
       </c>
       <c r="AF12" s="2">
-        <v>45813</v>
+        <v>45831</v>
       </c>
       <c r="AG12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB12" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="BC12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BG12" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="BH12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ12" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="BK12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL12" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM12">
-        <v>40696351</v>
+        <v>236</v>
       </c>
       <c r="BN12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV12" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW12">
-        <v>12954</v>
+        <v>13133</v>
       </c>
       <c r="BX12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CA12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CN12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CO12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CP12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CQ12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CR12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CS12" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="CT12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CU12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CV12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CW12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CX12" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="CY12" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="CZ12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DA12" s="3" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="DB12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT12" t="s">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="DU12" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="DV12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED12" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE12" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="EF12" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="EG12" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="EH12" t="s">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="EI12" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="EJ12" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:140">
@@ -6168,85 +6330,85 @@
         <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G13" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="I13" t="s">
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K13" s="2">
         <v>45133</v>
       </c>
       <c r="L13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M13" s="2">
         <v>45141</v>
       </c>
       <c r="N13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P13" s="2">
         <v>45316</v>
       </c>
       <c r="Q13" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="R13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S13" s="2">
-        <v>45832.75024305555</v>
+        <v>45855.81009259259</v>
       </c>
       <c r="T13" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U13" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD13" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="AE13" s="2">
         <v>45540</v>
@@ -6255,316 +6417,319 @@
         <v>45831</v>
       </c>
       <c r="AG13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB13" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="BC13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BG13" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="BH13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ13" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="BK13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL13" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>317</v>
       </c>
       <c r="BN13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV13" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW13">
-        <v>13133</v>
+        <v>13134</v>
       </c>
       <c r="BX13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ13" t="s">
         <v>142</v>
       </c>
       <c r="DA13" s="3" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="DB13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT13" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="DU13" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="DV13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED13" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE13" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="EF13" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="EG13" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="EH13" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="EI13" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="EJ13" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:140">
@@ -6575,85 +6740,88 @@
         <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14">
-        <v>37</v>
+        <v>213</v>
+      </c>
+      <c r="I14" t="s">
+        <v>222</v>
       </c>
       <c r="J14" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K14" s="2">
         <v>45133</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M14" s="2">
         <v>45141</v>
       </c>
       <c r="N14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P14" s="2">
         <v>45316</v>
       </c>
       <c r="Q14" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="R14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S14" s="2">
-        <v>45832.74958333333</v>
+        <v>45855.80766203703</v>
       </c>
       <c r="T14" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U14" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
       </c>
+      <c r="W14" t="s">
+        <v>260</v>
+      </c>
       <c r="X14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Z14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD14" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="AE14" s="2">
         <v>45540</v>
@@ -6662,732 +6830,1558 @@
         <v>45831</v>
       </c>
       <c r="AG14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB14" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="BC14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BG14" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="BH14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ14" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="BK14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL14" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM14">
-        <v>41044202</v>
+        <v>236</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>318</v>
       </c>
       <c r="BN14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV14" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW14">
-        <v>13134</v>
+        <v>13135</v>
       </c>
       <c r="BX14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ14" t="s">
         <v>142</v>
       </c>
       <c r="DA14" s="3" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="DB14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT14" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="DU14" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="DV14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED14" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE14" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="EF14" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="EG14" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="EH14" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="EI14" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="EJ14" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:140">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
+        <v>213</v>
+      </c>
+      <c r="I15" t="s">
+        <v>225</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K15" s="2">
-        <v>45133</v>
+        <v>45323</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M15" s="2">
-        <v>45141</v>
+        <v>45344</v>
       </c>
       <c r="N15" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="O15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="P15" s="2">
-        <v>45316</v>
+        <v>45575</v>
       </c>
       <c r="Q15" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="R15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S15" s="2">
-        <v>45832.7515625</v>
+        <v>45860.805</v>
       </c>
       <c r="T15" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="U15" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="X15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y15" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="Z15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AA15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AB15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AC15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AD15" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="AE15" s="2">
-        <v>45540</v>
+        <v>45729</v>
       </c>
       <c r="AF15" s="2">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="AG15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AH15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AI15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AJ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AM15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AN15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AO15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AP15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AQ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AR15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AS15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AT15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AU15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AV15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AW15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AY15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AZ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BB15" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="BC15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BD15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BE15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BF15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BG15" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="BH15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BI15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BJ15" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="BK15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BL15" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM15">
-        <v>33780369</v>
+        <v>236</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>319</v>
       </c>
       <c r="BN15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BO15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BP15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BQ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BR15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BS15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BT15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BU15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BV15" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="BW15">
-        <v>13135</v>
+        <v>13395</v>
       </c>
       <c r="BX15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BY15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="BZ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CA15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CB15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CC15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CD15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CE15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CF15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CG15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CH15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CI15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CJ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CK15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CL15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CM15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CN15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CO15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CP15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CQ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CR15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CS15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CT15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CU15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CV15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CW15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CX15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CY15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="CZ15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DA15" s="3" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="DB15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DC15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DD15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DE15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DF15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DG15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DH15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DI15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DJ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DK15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DL15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DM15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DN15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DO15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DP15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DQ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DS15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DT15" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="DU15" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="DV15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DW15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DX15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DY15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="DZ15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EA15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EB15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EC15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="ED15" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="EE15" t="s">
+        <v>372</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>373</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>377</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:140">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="2">
+        <v>45323</v>
+      </c>
+      <c r="L16" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="2">
+        <v>45343</v>
+      </c>
+      <c r="N16" t="s">
+        <v>245</v>
+      </c>
+      <c r="O16" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="2">
+        <v>45575</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>236</v>
+      </c>
+      <c r="R16" t="s">
+        <v>236</v>
+      </c>
+      <c r="S16" s="2">
+        <v>45860.81607638889</v>
+      </c>
+      <c r="T16" t="s">
+        <v>252</v>
+      </c>
+      <c r="U16" t="s">
+        <v>255</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>262</v>
+      </c>
+      <c r="X16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>45729</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>45834</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>320</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BV16" t="s">
         <v>324</v>
       </c>
-      <c r="EF15" t="s">
-        <v>327</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>331</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>200</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>336</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>338</v>
+      <c r="BW16">
+        <v>13396</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA16" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>363</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>252</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>236</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>236</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>236</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>236</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>236</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>372</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>373</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>377</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:140">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="2">
+        <v>45323</v>
+      </c>
+      <c r="L17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" s="2">
+        <v>45344</v>
+      </c>
+      <c r="N17" t="s">
+        <v>245</v>
+      </c>
+      <c r="O17" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="2">
+        <v>45575</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>236</v>
+      </c>
+      <c r="R17" t="s">
+        <v>236</v>
+      </c>
+      <c r="S17" s="2">
+        <v>45860.80976851852</v>
+      </c>
+      <c r="T17" t="s">
+        <v>252</v>
+      </c>
+      <c r="U17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>263</v>
+      </c>
+      <c r="X17" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>45729</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>45834</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>309</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>320</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>325</v>
+      </c>
+      <c r="BW17">
+        <v>13397</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>236</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>363</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>253</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>236</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>236</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>236</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>236</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>236</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>236</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>372</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>373</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>377</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7406,6 +8400,8 @@
     <hyperlink ref="DA13" r:id="rId12"/>
     <hyperlink ref="DA14" r:id="rId13"/>
     <hyperlink ref="DA15" r:id="rId14"/>
+    <hyperlink ref="DA16" r:id="rId15"/>
+    <hyperlink ref="DA17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
